--- a/030_input/30_Construction_Inputs.xlsx
+++ b/030_input/30_Construction_Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nv5inc-my.sharepoint.com/personal/andrewj_johnson_nv5_com/Documents/Documents/GitHub/Potential_Study_Tool_Prototype/030_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47CB3700-5EBB-4A46-A404-12179673EC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{47CB3700-5EBB-4A46-A404-12179673EC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBFA6CA8-689C-42C0-A17C-1C7AD2E2F415}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-3420" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B9A3EC35-284E-456A-8454-01F0A959EDAE}"/>
+    <workbookView xWindow="28680" yWindow="-3420" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B9A3EC35-284E-456A-8454-01F0A959EDAE}"/>
   </bookViews>
   <sheets>
     <sheet name="New_Construction" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="C2" sqref="C2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,16 +576,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -596,16 +596,16 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -616,16 +616,16 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -636,16 +636,16 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -656,16 +656,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -676,16 +676,16 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,16 +696,16 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -719,7 +719,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,16 +752,16 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -772,16 +772,16 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -792,16 +792,16 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,16 +812,16 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,16 +832,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -852,16 +852,16 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -872,16 +872,16 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -895,12 +895,15 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -934,13 +937,13 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -954,13 +957,13 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,13 +977,13 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,13 +997,13 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1014,13 +1017,13 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1034,13 +1037,13 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1054,13 +1057,13 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1070,6 +1073,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B011C3FEFFEFCF44990405A8404263A2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ff8dfd3bc83a02ed6a3437faf473449a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="79a1cdf2-2d4f-42d7-aee4-ff0e208e0f4a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a600ae29b0fcdec2bdff655f54bd0a0" ns2:_="">
     <xsd:import namespace="79a1cdf2-2d4f-42d7-aee4-ff0e208e0f4a"/>
@@ -1213,22 +1231,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA85399F-EA6F-4B92-B23C-1AA47FFFB46C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F54A0B5-383C-4984-9767-EEAB1FFBFD21}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="79a1cdf2-2d4f-42d7-aee4-ff0e208e0f4a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4E85B17-597E-44C7-AF2D-6452EE32BA93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1244,28 +1271,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA85399F-EA6F-4B92-B23C-1AA47FFFB46C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F54A0B5-383C-4984-9767-EEAB1FFBFD21}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="79a1cdf2-2d4f-42d7-aee4-ff0e208e0f4a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>